--- a/EnSharpPortal/Data/2018-1_lecture schedule.xlsx
+++ b/EnSharpPortal/Data/2018-1_lecture schedule.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\EnSharpPortal\EnSharpPortal\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="11520"/>
   </bookViews>
   <sheets>
-    <sheet name="강의시간표(schedule)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'강의시간표(schedule)'!$A$1:$L$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$167</definedName>
   </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
@@ -1070,7 +1075,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1475,7 +1480,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1485,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="B129" sqref="A1:L167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.3"/>
